--- a/biology/Zoologie/Agrobate_coryphée/Agrobate_coryphée.xlsx
+++ b/biology/Zoologie/Agrobate_coryphée/Agrobate_coryphée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Agrobate_coryph%C3%A9e</t>
+          <t>Agrobate_coryphée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cercotrichas coryphoeus
 L'Agrobate coryphée (Cercotrichas coryphoeus anciennement Erythropygia coryphoeus) est une petite espèce de passereaux de la famille des Muscicapidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Agrobate_coryph%C3%A9e</t>
+          <t>Agrobate_coryphée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve en Afrique du Sud, Lesotho et Namibie. 
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Agrobate_coryph%C3%A9e</t>
+          <t>Agrobate_coryphée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son cadre naturel de vie est les broussailles sèches tropicales, subtropicales et méditerranéennes.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Agrobate_coryph%C3%A9e</t>
+          <t>Agrobate_coryphée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,14 +590,50 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>S'appuyant sur diverses études phylogéniques, le Congrès ornithologique international (classification version 4.1, 2014) déplace cette espèce, alors placée dans le genre Erythropygia, dans le genre Cercotrichas.
 Synonymes
 Erythropygia coryphaeus
-Erythropygia coryphoeus
-Sous-espèces
-D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des deux sous-espèces suivantes :
+Erythropygia coryphoeus</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Agrobate_coryphée</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agrobate_coryph%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des deux sous-espèces suivantes :
 Cercotrichas coryphoeus coryphoeus  (Vieillot) 1817
 Cercotrichas coryphoeus cinerea  (Macdonald 1952)</t>
         </is>
